--- a/xlsx/加利福尼亚共和国_intext.xlsx
+++ b/xlsx/加利福尼亚共和国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>加利福尼亚共和国</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B_(1824%E2%80%931864)</t>
   </si>
   <si>
-    <t>墨西哥合眾國 (1824–1864)</t>
+    <t>墨西哥合众国 (1824–1864)</t>
   </si>
   <si>
     <t>政策_政策_加州_加利福尼亚共和国</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_B._Ide</t>
@@ -89,19 +89,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%89</t>
@@ -137,19 +134,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>國旗</t>
+    <t>国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>加利福尼亞</t>
+    <t>加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>共和國</t>
+    <t>共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mariano_Guadalupe_Vallejo</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
 </sst>
 </file>
@@ -892,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -918,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -947,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -976,10 +973,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1005,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -1034,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -1063,10 +1060,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1092,10 +1089,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1121,10 +1118,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -1150,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1179,10 +1176,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1208,10 +1205,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1237,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1266,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
